--- a/GridSearchResults/Hyperparameters_NTSK-wRLS_Yulara_5_Site_1_Power.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-wRLS_Yulara_5_Site_1_Power.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -482,17 +482,19 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>40.09541371020696</v>
+        <v>40.09541371005085</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8756586931106481</v>
+        <v>0.8756586931072388</v>
       </c>
       <c r="G2" t="n">
-        <v>32.06318268277111</v>
+        <v>32.06318268262779</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -510,17 +512,19 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>40.58612899283992</v>
+        <v>40.5412712744984</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8863756071743234</v>
+        <v>0.8853959427343264</v>
       </c>
       <c r="G3" t="n">
-        <v>32.69517212193831</v>
+        <v>32.42764386229245</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -538,17 +542,19 @@
       <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>39.9281168569453</v>
+        <v>39.84280621973048</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8720050347409544</v>
+        <v>0.8701419039192626</v>
       </c>
       <c r="G4" t="n">
-        <v>31.9306915072336</v>
+        <v>31.93067481794548</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
@@ -566,17 +572,19 @@
       <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>39.79610729543244</v>
+        <v>39.51545001896316</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8691220286957259</v>
+        <v>0.8629926497672198</v>
       </c>
       <c r="G5" t="n">
-        <v>31.80373746745129</v>
+        <v>31.63527033818688</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -594,17 +602,19 @@
       <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>39.78597190549516</v>
+        <v>39.62291784164025</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8689006781350161</v>
+        <v>0.8653396796254729</v>
       </c>
       <c r="G6" t="n">
-        <v>31.71033720579537</v>
+        <v>31.65533444655503</v>
       </c>
       <c r="H6" t="n">
         <v>13</v>
@@ -622,17 +632,19 @@
       <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>39.92285160826017</v>
+        <v>39.78073641632546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.87189004501131</v>
+        <v>0.8687863383345276</v>
       </c>
       <c r="G7" t="n">
-        <v>31.87922941931689</v>
+        <v>31.77269751176194</v>
       </c>
       <c r="H7" t="n">
         <v>16</v>
@@ -650,17 +662,19 @@
       <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
-        <v>2</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>39.96890362673498</v>
+        <v>39.82722182056744</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8728957922173175</v>
+        <v>0.8698015504139304</v>
       </c>
       <c r="G8" t="n">
-        <v>31.9066769927075</v>
+        <v>31.7780178514535</v>
       </c>
       <c r="H8" t="n">
         <v>19</v>
